--- a/sdk/win/GoAI2.0_SDK_List.xlsx
+++ b/sdk/win/GoAI2.0_SDK_List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="57">
   <si>
     <t>Device</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -887,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G41"/>
+  <dimension ref="A3:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1202,13 +1202,13 @@
       <c r="B20" s="22"/>
       <c r="C20" s="17"/>
       <c r="D20" s="13" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F20" s="11">
-        <v>44348</v>
+        <v>44357</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>42</v>
@@ -1219,16 +1219,16 @@
       <c r="B21" s="22"/>
       <c r="C21" s="17"/>
       <c r="D21" s="13" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F21" s="11">
         <v>44348</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1236,27 +1236,27 @@
       <c r="B22" s="22"/>
       <c r="C22" s="17"/>
       <c r="D22" s="13" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F22" s="11">
         <v>44348</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="24"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F23" s="11">
         <v>44348</v>
@@ -1268,14 +1268,12 @@
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="C24" s="24"/>
       <c r="D24" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F24" s="11">
         <v>44348</v>
@@ -1287,12 +1285,14 @@
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="22"/>
-      <c r="C25" s="17"/>
+      <c r="C25" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="D25" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="11">
         <v>44348</v>
@@ -1306,16 +1306,16 @@
       <c r="B26" s="22"/>
       <c r="C26" s="17"/>
       <c r="D26" s="13" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F26" s="11">
-        <v>44348</v>
+        <v>44357</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1323,10 +1323,10 @@
       <c r="B27" s="22"/>
       <c r="C27" s="17"/>
       <c r="D27" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F27" s="11">
         <v>44348</v>
@@ -1340,27 +1340,27 @@
       <c r="B28" s="22"/>
       <c r="C28" s="17"/>
       <c r="D28" s="13" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F28" s="11">
         <v>44348</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F29" s="11">
         <v>44348</v>
@@ -1371,17 +1371,13 @@
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>46</v>
-      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F30" s="11">
         <v>44348</v>
@@ -1392,13 +1388,13 @@
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>34</v>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="F31" s="11">
         <v>44348</v>
@@ -1409,13 +1405,17 @@
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="D32" s="13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F32" s="11">
         <v>44348</v>
@@ -1428,11 +1428,11 @@
       <c r="A33" s="6"/>
       <c r="B33" s="20"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>28</v>
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F33" s="11">
         <v>44348</v>
@@ -1446,10 +1446,10 @@
       <c r="B34" s="20"/>
       <c r="C34" s="17"/>
       <c r="D34" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F34" s="11">
         <v>44348</v>
@@ -1463,10 +1463,10 @@
       <c r="B35" s="20"/>
       <c r="C35" s="17"/>
       <c r="D35" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F35" s="11">
         <v>44348</v>
@@ -1480,10 +1480,10 @@
       <c r="B36" s="20"/>
       <c r="C36" s="17"/>
       <c r="D36" s="13" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F36" s="11">
         <v>44348</v>
@@ -1497,10 +1497,10 @@
       <c r="B37" s="20"/>
       <c r="C37" s="17"/>
       <c r="D37" s="13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F37" s="11">
         <v>44348</v>
@@ -1514,16 +1514,16 @@
       <c r="B38" s="20"/>
       <c r="C38" s="17"/>
       <c r="D38" s="13" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F38" s="11">
         <v>44348</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1531,47 +1531,81 @@
       <c r="B39" s="20"/>
       <c r="C39" s="17"/>
       <c r="D39" s="13" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F39" s="11">
         <v>44348</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="14" t="s">
+      <c r="B40" s="20"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="11">
+        <v>44348</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="11">
+        <v>44348</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E42" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F40" s="11">
-        <v>44348</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G41" s="15"/>
+      <c r="F42" s="11">
+        <v>44348</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G43" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C30:C40"/>
-    <mergeCell ref="B30:B40"/>
+    <mergeCell ref="C32:C42"/>
+    <mergeCell ref="B32:B42"/>
     <mergeCell ref="B5:B18"/>
     <mergeCell ref="C5:C18"/>
-    <mergeCell ref="B19:B29"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="B19:B31"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="C25:C31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
